--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2831807.200539724</v>
+        <v>2947338.715405892</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283171</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663197</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663197</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>28.33592091243802</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>11.36529914368137</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>37.11181591693553</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -747,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>103.4513183426382</v>
+        <v>15.40229248514481</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +834,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>78.37543155333528</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W4" t="n">
-        <v>46.78039326035113</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>349.2299344537561</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>322.5256793116145</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>203.704272075997</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>349.2299344537561</v>
+        <v>12.538236240781</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2299344537561</v>
+        <v>349.2299344537562</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>100.7673208943512</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419591</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>20.17138038922727</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
         <v>225.8440703321075</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.7509192581389</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057145</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>257.2987032532544</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>46.62163546823803</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>393.7929768299541</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>189.8703584515416</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.50927658788041</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>112.0242066406514</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,19 +1341,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>60.42721558712929</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>277.7284229912266</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>178.4855482404954</v>
       </c>
     </row>
     <row r="17">
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>214.7441689014848</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2248,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>39.52129633183122</v>
+        <v>61.97958965902472</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,19 +2478,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>102.1557845699813</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>195.2208281702714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2956,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>142.3575218158275</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>170.7054634963595</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3275,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>159.365405854055</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>20.72279572932656</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>173.2052365248848</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710091</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695508</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.75513637220187</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>202.9133247598237</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520743</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>35.41770597126886</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.184474389244</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>549.2024635036614</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="C2" t="n">
-        <v>549.2024635036614</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="D2" t="n">
-        <v>549.2024635036614</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="E2" t="n">
-        <v>549.2024635036614</v>
+        <v>351.3361714764006</v>
       </c>
       <c r="F2" t="n">
-        <v>359.7826784871768</v>
+        <v>344.3906707271972</v>
       </c>
       <c r="G2" t="n">
-        <v>170.3628934706923</v>
+        <v>331.1605361513809</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058933</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
         <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201461</v>
+        <v>738.6222485201465</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201461</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036614</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036614</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="V2" t="n">
-        <v>549.2024635036614</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="W2" t="n">
-        <v>549.2024635036614</v>
+        <v>578.2426392372646</v>
       </c>
       <c r="X2" t="n">
-        <v>549.2024635036614</v>
+        <v>540.7559564928853</v>
       </c>
       <c r="Y2" t="n">
-        <v>549.2024635036614</v>
+        <v>540.7559564928853</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>450.2076741100789</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>303.6731161369638</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>166.133934959413</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906982</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476345</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017058</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R3" t="n">
-        <v>722.919292284327</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S3" t="n">
-        <v>722.919292284327</v>
+        <v>598.8192732198755</v>
       </c>
       <c r="T3" t="n">
-        <v>722.919292284327</v>
+        <v>409.3994882033909</v>
       </c>
       <c r="U3" t="n">
-        <v>722.919292284327</v>
+        <v>219.9797031869062</v>
       </c>
       <c r="V3" t="n">
-        <v>722.919292284327</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="W3" t="n">
-        <v>618.423011130147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X3" t="n">
-        <v>618.423011130147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>618.423011130147</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.6330054664542</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C4" t="n">
-        <v>320.6330054664542</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D4" t="n">
-        <v>320.6330054664542</v>
+        <v>221.1461392199742</v>
       </c>
       <c r="E4" t="n">
-        <v>320.6330054664542</v>
+        <v>221.1461392199742</v>
       </c>
       <c r="F4" t="n">
-        <v>320.6330054664542</v>
+        <v>221.1461392199742</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>221.1461392199742</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757274</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818526</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>43.17590452428081</v>
+        <v>106.7151088594233</v>
       </c>
       <c r="L4" t="n">
-        <v>216.0634826394158</v>
+        <v>118.7527324484195</v>
       </c>
       <c r="M4" t="n">
-        <v>401.7138139340723</v>
+        <v>304.4030637430761</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287288</v>
+        <v>471.6341805242513</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652789</v>
+        <v>634.3723839608015</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846265</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846265</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="S4" t="n">
-        <v>557.305712968142</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="T4" t="n">
-        <v>367.8859279516574</v>
+        <v>750.1023486652792</v>
       </c>
       <c r="U4" t="n">
-        <v>367.8859279516574</v>
+        <v>560.6825636487946</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516574</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W4" t="n">
-        <v>320.6330054664542</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X4" t="n">
-        <v>320.6330054664542</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y4" t="n">
-        <v>320.6330054664542</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>691.4047187165272</v>
+        <v>831.0367280277494</v>
       </c>
       <c r="C5" t="n">
-        <v>691.4047187165272</v>
+        <v>478.2792184785007</v>
       </c>
       <c r="D5" t="n">
-        <v>691.4047187165272</v>
+        <v>152.4957040223244</v>
       </c>
       <c r="E5" t="n">
-        <v>691.4047187165272</v>
+        <v>152.4957040223244</v>
       </c>
       <c r="F5" t="n">
-        <v>485.6428277306716</v>
+        <v>145.550203273121</v>
       </c>
       <c r="G5" t="n">
         <v>132.885318181423</v>
@@ -4562,25 +4564,25 @@
         <v>132.885318181423</v>
       </c>
       <c r="I5" t="n">
-        <v>27.93839475630049</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="J5" t="n">
-        <v>80.9902034087462</v>
+        <v>80.99020340874637</v>
       </c>
       <c r="K5" t="n">
         <v>211.2396305620539</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458676</v>
+        <v>409.7273242458674</v>
       </c>
       <c r="M5" t="n">
         <v>662.2525653973844</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365773</v>
+        <v>923.4777373365769</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477536</v>
+        <v>1156.809998477535</v>
       </c>
       <c r="P5" t="n">
         <v>1321.452684169737</v>
@@ -4595,22 +4597,22 @@
         <v>1396.919737815025</v>
       </c>
       <c r="T5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="U5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="V5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="W5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="X5" t="n">
-        <v>1396.919737815025</v>
+        <v>1183.794237576998</v>
       </c>
       <c r="Y5" t="n">
-        <v>1044.162228265776</v>
+        <v>831.0367280277494</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>66.79713308377112</v>
+        <v>129.7235673768573</v>
       </c>
       <c r="C6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="D6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="E6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="F6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="G6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="H6" t="n">
-        <v>66.79713308377112</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="I6" t="n">
-        <v>27.93839475630049</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="J6" t="n">
-        <v>40.7178415914309</v>
+        <v>40.71784159143091</v>
       </c>
       <c r="K6" t="n">
         <v>140.7147764379374</v>
@@ -4659,37 +4661,37 @@
         <v>802.6390307947668</v>
       </c>
       <c r="O6" t="n">
-        <v>1009.874197887851</v>
+        <v>1148.376665903985</v>
       </c>
       <c r="P6" t="n">
-        <v>1156.865623411835</v>
+        <v>1295.36809142797</v>
       </c>
       <c r="Q6" t="n">
         <v>1396.919737815025</v>
       </c>
       <c r="R6" t="n">
-        <v>1388.514189308346</v>
+        <v>1396.919737815025</v>
       </c>
       <c r="S6" t="n">
-        <v>1388.514189308346</v>
+        <v>1251.254262387108</v>
       </c>
       <c r="T6" t="n">
-        <v>1368.139057602056</v>
+        <v>1055.08985611012</v>
       </c>
       <c r="U6" t="n">
-        <v>1140.01373403427</v>
+        <v>826.9645325423345</v>
       </c>
       <c r="V6" t="n">
-        <v>904.8616258025274</v>
+        <v>591.8124243105917</v>
       </c>
       <c r="W6" t="n">
-        <v>650.6242690743259</v>
+        <v>337.5750675823901</v>
       </c>
       <c r="X6" t="n">
-        <v>442.772768868793</v>
+        <v>129.7235673768573</v>
       </c>
       <c r="Y6" t="n">
-        <v>235.0124701038391</v>
+        <v>129.7235673768573</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.93839475630049</v>
+        <v>518.9673180162935</v>
       </c>
       <c r="C7" t="n">
-        <v>27.93839475630049</v>
+        <v>350.0311350883866</v>
       </c>
       <c r="D7" t="n">
-        <v>27.93839475630049</v>
+        <v>350.0311350883866</v>
       </c>
       <c r="E7" t="n">
-        <v>27.93839475630049</v>
+        <v>202.1180415059935</v>
       </c>
       <c r="F7" t="n">
-        <v>27.93839475630049</v>
+        <v>202.1180415059935</v>
       </c>
       <c r="G7" t="n">
-        <v>27.93839475630049</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="H7" t="n">
-        <v>27.93839475630049</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="I7" t="n">
-        <v>27.93839475630049</v>
+        <v>33.68276952807539</v>
       </c>
       <c r="J7" t="n">
-        <v>27.93839475630049</v>
+        <v>27.9383947563005</v>
       </c>
       <c r="K7" t="n">
         <v>148.5233105874692</v>
@@ -4750,25 +4752,25 @@
         <v>1059.927283950958</v>
       </c>
       <c r="S7" t="n">
-        <v>1059.927283950958</v>
+        <v>855.4770491322823</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.927283950958</v>
+        <v>855.4770491322823</v>
       </c>
       <c r="U7" t="n">
-        <v>800.0296038971653</v>
+        <v>855.4770491322823</v>
       </c>
       <c r="V7" t="n">
-        <v>545.3451156912785</v>
+        <v>855.4770491322823</v>
       </c>
       <c r="W7" t="n">
-        <v>255.9279456543178</v>
+        <v>566.0598790953218</v>
       </c>
       <c r="X7" t="n">
-        <v>27.93839475630049</v>
+        <v>518.9673180162935</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.93839475630049</v>
+        <v>518.9673180162935</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1245.791627622475</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>1245.791627622475</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="D8" t="n">
-        <v>1245.791627622475</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>860.003375024231</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>449.0174702346234</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4829,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2245.851880066482</v>
       </c>
       <c r="V8" t="n">
-        <v>2022.530799662409</v>
+        <v>2245.851880066482</v>
       </c>
       <c r="W8" t="n">
-        <v>2022.530799662409</v>
+        <v>1893.083224796368</v>
       </c>
       <c r="X8" t="n">
-        <v>2022.530799662409</v>
+        <v>1519.617466535288</v>
       </c>
       <c r="Y8" t="n">
-        <v>1632.391467686597</v>
+        <v>1129.478134559477</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057899</v>
@@ -4884,25 +4886,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>551.6025748766947</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>846.3061319081664</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>585.1341097117278</v>
+        <v>388.8041944123875</v>
       </c>
       <c r="C10" t="n">
-        <v>585.1341097117278</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="D10" t="n">
-        <v>585.1341097117278</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="E10" t="n">
-        <v>585.1341097117278</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F10" t="n">
-        <v>438.2441622138174</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>270.257697522096</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
@@ -4987,25 +4989,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>766.7825745419675</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X10" t="n">
-        <v>766.7825745419675</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y10" t="n">
-        <v>766.7825745419675</v>
+        <v>570.4526592426272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5030,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>809.0422355233313</v>
+        <v>634.4644740681601</v>
       </c>
       <c r="C13" t="n">
-        <v>640.1060525954244</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1983.574488637966</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.890000432079</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1439.472830395119</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.67509321183</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5507,28 +5509,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756265</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021782</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5668,16 +5670,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5707,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1471.472551934014</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1182.055381897054</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5777,7 +5779,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913851</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972543</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.67509321183</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>618.4214495336224</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8238677453423</v>
+        <v>470.5083559512293</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8238677453423</v>
+        <v>323.6184084533189</v>
       </c>
       <c r="G22" t="n">
-        <v>215.8238677453423</v>
+        <v>156.4223091681989</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5944,16 +5946,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="23">
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.067041434951</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.043492616109</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6124,34 +6126,34 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>197.0043242297712</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>197.0043242297712</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6206,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6221,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
@@ -6239,10 +6241,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756265</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756265</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021782</v>
+        <v>3659.984780604089</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>4287.582744158696</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>4287.582744158696</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6385,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6409,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1905.631426649717</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.214256612757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6488,10 +6490,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>3192.420589669523</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F31" t="n">
-        <v>198.027470314254</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>3822.85118454131</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>3594.861633643293</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>3374.069054499763</v>
       </c>
     </row>
     <row r="32">
@@ -6683,40 +6685,40 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6725,16 +6727,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756265</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438179</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2897.617548589219</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C34" t="n">
-        <v>2728.681365661312</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.681365661312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661312</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>3817.465313497967</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>3528.048143461006</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>3300.058592562989</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>3079.266013419459</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452619</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718135</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7071,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7137,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.30903818352</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,7 +7201,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021782</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>551.263652184387</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>403.3505586019938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>256.4606111040835</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7357,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2052.406834234631</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1797.722346028744</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1508.305175991783</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.315625093766</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="41">
@@ -7388,34 +7390,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192673</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7436,7 +7438,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143764</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O42" t="n">
-        <v>2297.690135143764</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2297.690135143764</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232831</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232831</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232831</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>631.70124434089</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429798</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.61519755786</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1772.498126207657</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1517.81363800177</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1228.39646796481</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>1000.406917066792</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.6143379232831</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7673,16 +7675,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
         <v>3467.980956852888</v>
@@ -7691,7 +7693,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756265</v>
+        <v>2383.002557118213</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245714</v>
+        <v>2716.927329289434</v>
       </c>
       <c r="L45" t="n">
-        <v>776.17510664033</v>
+        <v>3212.252935505192</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266882</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>3809.631423131744</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>4361.541153371031</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>4420.931837070599</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327663</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048596</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D46" t="n">
-        <v>444.701316492524</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="E46" t="n">
-        <v>296.788222910131</v>
+        <v>486.0795508855734</v>
       </c>
       <c r="F46" t="n">
-        <v>296.788222910131</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>129.5921236250111</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.2863919474</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741514</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704553</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806536</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.4026036630059</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>42.56275186471064</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>145.2551346857769</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8307,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>139.9014828445805</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>193.6499349213313</v>
+        <v>53.74845207675088</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,28 +8534,28 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>255.8421700460943</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179981</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>294.8344935184725</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>119.404764594808</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>8.456051398017564</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>40.09910511159939</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>37.39347442234316</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>100.7734165143927</v>
+        <v>78.31512318719916</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>30.48882721876572</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>62.35543909864955</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>144.1654765207635</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25126,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>47.87918985573532</v>
       </c>
     </row>
     <row r="35">
@@ -25318,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>112.9792378643594</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986276</v>
+        <v>69.49168472642596</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25834,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>83.27114962942019</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229311</v>
+        <v>62.89964020219848</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>104.8770068749549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856541</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012156</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739240.7629862648</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.504384641</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.504384641</v>
-      </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365052</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365053</v>
       </c>
       <c r="O2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208453</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427127</v>
+        <v>178997.5061427125</v>
       </c>
       <c r="D3" t="n">
         <v>301519.8707731203</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245454</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854456</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267295</v>
+        <v>41617.52445267298</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019532</v>
+        <v>73739.30240019536</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,13 +26426,13 @@
         <v>145155.2306979382</v>
       </c>
       <c r="E4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="G4" t="n">
-        <v>13606.8081118428</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26439,25 +26441,25 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184282</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184311</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184287</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161356</v>
       </c>
       <c r="C5" t="n">
         <v>69851.97930029182</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-227928.046978531</v>
+        <v>-227928.0469785311</v>
       </c>
       <c r="C6" t="n">
-        <v>219447.8799609398</v>
+        <v>219447.8799609402</v>
       </c>
       <c r="D6" t="n">
-        <v>158272.6304737376</v>
+        <v>158272.6304737375</v>
       </c>
       <c r="E6" t="n">
-        <v>63859.83017620986</v>
+        <v>63859.83017621023</v>
       </c>
       <c r="F6" t="n">
-        <v>571345.2718007558</v>
+        <v>571345.2718007554</v>
       </c>
       <c r="G6" t="n">
-        <v>571345.2718007558</v>
+        <v>571345.2718007556</v>
       </c>
       <c r="H6" t="n">
-        <v>571345.2718007558</v>
+        <v>571345.2718007555</v>
       </c>
       <c r="I6" t="n">
-        <v>571345.2718007558</v>
+        <v>571345.2718007556</v>
       </c>
       <c r="J6" t="n">
-        <v>522280.3270722108</v>
+        <v>522280.327072211</v>
       </c>
       <c r="K6" t="n">
         <v>529727.7473480826</v>
       </c>
       <c r="L6" t="n">
-        <v>497605.9694005603</v>
+        <v>497605.96940056</v>
       </c>
       <c r="M6" t="n">
-        <v>438737.978071829</v>
+        <v>438737.9780718288</v>
       </c>
       <c r="N6" t="n">
-        <v>571345.2718007554</v>
+        <v>571345.2718007556</v>
       </c>
       <c r="O6" t="n">
-        <v>571345.2718007554</v>
+        <v>571345.2718007558</v>
       </c>
       <c r="P6" t="n">
-        <v>571345.2718007555</v>
+        <v>571345.2718007561</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
         <v>687.6696919955708</v>
@@ -26787,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537561</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26957,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826666</v>
+        <v>139.1997510826664</v>
       </c>
       <c r="D3" t="n">
         <v>246.3952001219685</v>
@@ -26969,7 +26971,7 @@
         <v>433.9106082241342</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
         <v>161.7043472874364</v>
@@ -27018,10 +27020,10 @@
         <v>291.3548976462826</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874362</v>
+        <v>161.7043472874366</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.3548976462828</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>161.7043472874364</v>
@@ -27264,10 +27266,10 @@
         <v>291.3548976462826</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971608</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637383</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>288.5579051937843</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988706</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>332.6192847615335</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27467,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550658</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,22 +27505,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714239</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681441</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377112</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310546</v>
       </c>
       <c r="W3" t="n">
-        <v>148.2436648182814</v>
+        <v>236.2926906757748</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27554,13 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>75.05823927848429</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553086</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845815</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>19.25466862917651</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>36.19408632378037</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>98.73949432713046</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>64.61205615750819</v>
       </c>
       <c r="W4" t="n">
-        <v>239.7426050762399</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.50390720972445</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>16.04295731725136</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>32.1573623090685</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>203.1717736657144</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>63.30830178702487</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>311.1628534397887</v>
@@ -27667,7 +27669,7 @@
         <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1244928058882</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.00800420229746</v>
+        <v>37.0080042022974</v>
       </c>
     </row>
     <row r="6">
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>71.94117809396455</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27713,7 +27715,7 @@
         <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419591</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.321493021611957</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>174.0313818249912</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,19 +27776,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.7509192581389</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>151.2019108882319</v>
@@ -27795,7 +27797,7 @@
         <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057145</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
       </c>
       <c r="U7" t="n">
-        <v>28.95268646140084</v>
+        <v>286.2513897146553</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>179.0880199207991</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>17.75472594299987</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>61.17489167692037</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.7375445107474</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>35.22730251447744</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,19 +28061,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,43 +31126,43 @@
         <v>11.39368688575675</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936714</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765068</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M4" t="n">
         <v>155.0371670682165</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820537</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147602</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>698.8508668798656</v>
       </c>
       <c r="N12" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950826</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>399.4395445221156</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,40 +32548,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171904</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32698,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32737,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32792,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319857</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32974,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221156</v>
+        <v>268.6704608606964</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33211,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,40 +33259,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>729.0844763571699</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33448,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,40 +33496,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>583.1096135868581</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>181.6580975439405</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33685,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33734,25 +33736,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>248.74493692092</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214697</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33971,7 +33973,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33980,28 +33982,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>639.8517673857162</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>250.1723312270672</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,37 +34122,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.015579806724</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34161,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34207,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>537.262354434964</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>360.9226811202621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,40 +34444,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551114</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.45844197068205</v>
+        <v>92.63945645062398</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663197</v>
+        <v>168.9203199809851</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35027,13 +35029,13 @@
         <v>253.3575809887927</v>
       </c>
       <c r="O6" t="n">
-        <v>209.3284516091757</v>
+        <v>349.2299344537562</v>
       </c>
       <c r="P6" t="n">
         <v>148.4761873979638</v>
       </c>
       <c r="Q6" t="n">
-        <v>242.4789034375654</v>
+        <v>102.577420592985</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,28 +35254,28 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>442.4296662895791</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>630.2591755145955</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>556.7168329578473</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312443</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.76383318075232</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>265.4651371077854</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028601763</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875412</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36522,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396436</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077854</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36759,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>586.9504424351516</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36996,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>440.9755796648398</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37233,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>110.1905571410458</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071394</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37470,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,19 +37630,19 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>508.510055302383</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.1905571410457</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318053</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>394.6661099905195</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>220.9409070342406</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396427</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075244</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295346</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060454</v>
@@ -38193,7 +38195,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_21_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2947338.715405892</v>
+        <v>2943036.553509426</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.09783323005805</v>
+        <v>175.6809662669691</v>
       </c>
       <c r="H2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368137</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -718,16 +718,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>37.11181591693553</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
-        <v>15.40229248514481</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.55196806984847</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>78.37543155333528</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>4.011337832015525</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="C5" t="n">
-        <v>349.2299344537562</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>322.5256793116145</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>103.8974541908712</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>210.9942452356465</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1244928058882</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2299344537562</v>
+        <v>58.54062746211</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>100.7673208943512</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>38.47015094419588</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>144.2088206736374</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.2027622142185</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8440703321075</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>115.964656651555</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.7509192581389</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5.686931024057145</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>121.5357799573319</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>202.4057324704885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>46.62163546823803</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>188.9045760336267</v>
       </c>
     </row>
     <row r="8">
@@ -1138,19 +1138,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>266.7331670745509</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>189.8703584515416</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>41.50927658788041</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60.42721558712929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>20.89983420622057</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.4855482404954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,13 +1900,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2061,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>214.7441689014848</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>61.97958965902472</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2371,10 +2371,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881277</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>211.0945873157027</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>142.3575218158275</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.7054634963595</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>159.365405854055</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>20.72279572932656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3802,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>97.75513637220187</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4143,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>82.52140782073276</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>351.3361714764006</v>
+        <v>199.403069204296</v>
       </c>
       <c r="C2" t="n">
-        <v>351.3361714764006</v>
+        <v>199.403069204296</v>
       </c>
       <c r="D2" t="n">
-        <v>351.3361714764006</v>
+        <v>199.403069204296</v>
       </c>
       <c r="E2" t="n">
-        <v>351.3361714764006</v>
+        <v>199.403069204296</v>
       </c>
       <c r="F2" t="n">
-        <v>344.3906707271972</v>
+        <v>192.4575684550925</v>
       </c>
       <c r="G2" t="n">
-        <v>331.1605361513809</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058933</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079182</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123833</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>734.4611726020272</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201465</v>
+        <v>738.6222485201479</v>
       </c>
       <c r="S2" t="n">
-        <v>578.2426392372646</v>
+        <v>578.242639237266</v>
       </c>
       <c r="T2" t="n">
-        <v>578.2426392372646</v>
+        <v>578.242639237266</v>
       </c>
       <c r="U2" t="n">
-        <v>578.2426392372646</v>
+        <v>578.242639237266</v>
       </c>
       <c r="V2" t="n">
-        <v>578.2426392372646</v>
+        <v>388.822854220781</v>
       </c>
       <c r="W2" t="n">
-        <v>578.2426392372646</v>
+        <v>388.822854220781</v>
       </c>
       <c r="X2" t="n">
-        <v>540.7559564928853</v>
+        <v>388.822854220781</v>
       </c>
       <c r="Y2" t="n">
-        <v>540.7559564928853</v>
+        <v>199.403069204296</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>64.27357399906981</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772648</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476345</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017058</v>
+        <v>739.5989987017069</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198755</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T3" t="n">
-        <v>409.3994882033909</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U3" t="n">
-        <v>219.9797031869062</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V3" t="n">
-        <v>30.55991817042155</v>
+        <v>560.6825636487955</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>355.5537199758979</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>166.133934959413</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.26277863231</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="C4" t="n">
-        <v>371.26277863231</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="D4" t="n">
-        <v>221.1461392199742</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="E4" t="n">
-        <v>221.1461392199742</v>
+        <v>185.5624574060956</v>
       </c>
       <c r="F4" t="n">
-        <v>221.1461392199742</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="G4" t="n">
-        <v>221.1461392199742</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>118.7527324484195</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>304.4030637430761</v>
+        <v>465.2530182692154</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242513</v>
+        <v>488.6815517114717</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608015</v>
+        <v>651.4197551480219</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652792</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="U4" t="n">
-        <v>560.6825636487946</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="V4" t="n">
-        <v>371.26277863231</v>
+        <v>750.1023486652805</v>
       </c>
       <c r="W4" t="n">
-        <v>371.26277863231</v>
+        <v>746.0504922693052</v>
       </c>
       <c r="X4" t="n">
-        <v>371.26277863231</v>
+        <v>556.6307072528202</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.26277863231</v>
+        <v>367.2109222363353</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>831.0367280277494</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="C5" t="n">
-        <v>478.2792184785007</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="D5" t="n">
-        <v>152.4957040223244</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="E5" t="n">
-        <v>152.4957040223244</v>
+        <v>47.54878059720198</v>
       </c>
       <c r="F5" t="n">
-        <v>145.550203273121</v>
+        <v>40.60327984799851</v>
       </c>
       <c r="G5" t="n">
-        <v>132.885318181423</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="H5" t="n">
-        <v>132.885318181423</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I5" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J5" t="n">
-        <v>80.99020340874637</v>
+        <v>80.99020340874631</v>
       </c>
       <c r="K5" t="n">
-        <v>211.2396305620539</v>
+        <v>211.2396305620542</v>
       </c>
       <c r="L5" t="n">
-        <v>409.7273242458674</v>
+        <v>409.7273242458681</v>
       </c>
       <c r="M5" t="n">
-        <v>662.2525653973844</v>
+        <v>662.2525653973854</v>
       </c>
       <c r="N5" t="n">
-        <v>923.4777373365769</v>
+        <v>923.4777373365783</v>
       </c>
       <c r="O5" t="n">
-        <v>1156.809998477535</v>
+        <v>1156.809998477537</v>
       </c>
       <c r="P5" t="n">
-        <v>1321.452684169737</v>
+        <v>1321.45268416974</v>
       </c>
       <c r="Q5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="S5" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="T5" t="n">
-        <v>1183.794237576998</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="U5" t="n">
-        <v>1183.794237576998</v>
+        <v>1143.258633970695</v>
       </c>
       <c r="V5" t="n">
-        <v>1183.794237576998</v>
+        <v>812.1957466271248</v>
       </c>
       <c r="W5" t="n">
-        <v>1183.794237576998</v>
+        <v>812.1957466271248</v>
       </c>
       <c r="X5" t="n">
-        <v>1183.794237576998</v>
+        <v>459.4382370778755</v>
       </c>
       <c r="Y5" t="n">
-        <v>831.0367280277494</v>
+        <v>400.3062901464513</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129.7235673768573</v>
+        <v>695.9565850047198</v>
       </c>
       <c r="C6" t="n">
-        <v>27.9383947563005</v>
+        <v>521.5035557235929</v>
       </c>
       <c r="D6" t="n">
-        <v>27.9383947563005</v>
+        <v>372.5691460623416</v>
       </c>
       <c r="E6" t="n">
-        <v>27.9383947563005</v>
+        <v>213.3316910568861</v>
       </c>
       <c r="F6" t="n">
-        <v>27.9383947563005</v>
+        <v>66.79713308377113</v>
       </c>
       <c r="G6" t="n">
-        <v>27.9383947563005</v>
+        <v>66.79713308377113</v>
       </c>
       <c r="H6" t="n">
-        <v>27.9383947563005</v>
+        <v>66.79713308377113</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J6" t="n">
-        <v>40.71784159143091</v>
+        <v>40.71784159143104</v>
       </c>
       <c r="K6" t="n">
-        <v>140.7147764379374</v>
+        <v>332.4282120100564</v>
       </c>
       <c r="L6" t="n">
-        <v>321.49553688245</v>
+        <v>513.2089724545692</v>
       </c>
       <c r="M6" t="n">
-        <v>551.8150256158621</v>
+        <v>743.5284611879815</v>
       </c>
       <c r="N6" t="n">
-        <v>802.6390307947668</v>
+        <v>994.3524663668866</v>
       </c>
       <c r="O6" t="n">
-        <v>1148.376665903985</v>
+        <v>1201.587633459971</v>
       </c>
       <c r="P6" t="n">
-        <v>1295.36809142797</v>
+        <v>1348.579058983955</v>
       </c>
       <c r="Q6" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="R6" t="n">
-        <v>1396.919737815025</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="S6" t="n">
-        <v>1251.254262387108</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="T6" t="n">
-        <v>1055.08985611012</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="U6" t="n">
-        <v>826.9645325423345</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="V6" t="n">
-        <v>591.8124243105917</v>
+        <v>1396.919737815027</v>
       </c>
       <c r="W6" t="n">
-        <v>337.5750675823901</v>
+        <v>1279.783720995275</v>
       </c>
       <c r="X6" t="n">
-        <v>129.7235673768573</v>
+        <v>1071.932220789742</v>
       </c>
       <c r="Y6" t="n">
-        <v>129.7235673768573</v>
+        <v>864.1719220247878</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.9673180162935</v>
+        <v>810.2295301547647</v>
       </c>
       <c r="C7" t="n">
-        <v>350.0311350883866</v>
+        <v>641.2933472268578</v>
       </c>
       <c r="D7" t="n">
-        <v>350.0311350883866</v>
+        <v>491.176707814522</v>
       </c>
       <c r="E7" t="n">
-        <v>202.1180415059935</v>
+        <v>343.2636142321289</v>
       </c>
       <c r="F7" t="n">
-        <v>202.1180415059935</v>
+        <v>196.3736667342186</v>
       </c>
       <c r="G7" t="n">
-        <v>33.68276952807539</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="H7" t="n">
-        <v>33.68276952807539</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="I7" t="n">
-        <v>33.68276952807539</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="J7" t="n">
-        <v>27.9383947563005</v>
+        <v>27.93839475630054</v>
       </c>
       <c r="K7" t="n">
-        <v>148.5233105874692</v>
+        <v>148.5233105874694</v>
       </c>
       <c r="L7" t="n">
-        <v>358.3569215208643</v>
+        <v>358.3569215208646</v>
       </c>
       <c r="M7" t="n">
-        <v>589.986166501428</v>
+        <v>589.9861665014284</v>
       </c>
       <c r="N7" t="n">
-        <v>821.5424021750255</v>
+        <v>821.5424021750262</v>
       </c>
       <c r="O7" t="n">
-        <v>1019.405768767886</v>
+        <v>1019.405768767887</v>
       </c>
       <c r="P7" t="n">
-        <v>1165.191378612032</v>
+        <v>1165.191378612033</v>
       </c>
       <c r="Q7" t="n">
-        <v>1182.690698049273</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="R7" t="n">
-        <v>1059.927283950958</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="S7" t="n">
-        <v>855.4770491322823</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="T7" t="n">
-        <v>855.4770491322823</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="U7" t="n">
-        <v>855.4770491322823</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="V7" t="n">
-        <v>855.4770491322823</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="W7" t="n">
-        <v>566.0598790953218</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="X7" t="n">
-        <v>518.9673180162935</v>
+        <v>1182.690698049274</v>
       </c>
       <c r="Y7" t="n">
-        <v>518.9673180162935</v>
+        <v>991.8779949850044</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>742.878294495355</v>
+        <v>1844.676600992462</v>
       </c>
       <c r="C8" t="n">
-        <v>373.9157775549433</v>
+        <v>1475.714084052051</v>
       </c>
       <c r="D8" t="n">
-        <v>373.9157775549433</v>
+        <v>1117.4483854453</v>
       </c>
       <c r="E8" t="n">
-        <v>373.9157775549433</v>
+        <v>731.660132847056</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>320.6742280574485</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4810,10 +4810,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2245.851880066482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2245.851880066482</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.083224796368</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1519.617466535288</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="Y8" t="n">
-        <v>1129.478134559477</v>
+        <v>2231.276441056584</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>551.6025748766947</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081664</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.8041944123875</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>346.8756322024072</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>346.8756322024072</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W10" t="n">
-        <v>570.4526592426272</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X10" t="n">
-        <v>570.4526592426272</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y10" t="n">
-        <v>570.4526592426272</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="11">
@@ -5032,46 +5032,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5080,10 +5080,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.4644740681601</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>465.5282911402533</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>465.5282911402533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5269,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5509,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
@@ -5536,22 +5536,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5600,22 +5600,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5709,16 +5709,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1471.472551934014</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1182.055381897054</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.055381897054</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>961.2628027535235</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5752,19 +5752,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5837,19 +5837,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>768.5380889459582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>618.4214495336224</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>470.5083559512293</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>323.6184084533189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>156.4223091681989</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6208,55 +6208,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>3062.606292977538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3659.984780604089</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4287.582744158696</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4287.582744158696</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6375,13 +6375,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3192.420589669523</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741616</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W31" t="n">
-        <v>3822.85118454131</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X31" t="n">
-        <v>3594.861633643293</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y31" t="n">
-        <v>3374.069054499763</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,10 +6736,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6782,25 +6782,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>781.8178837532264</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>963.4663485834661</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6605733532803</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
         <v>484.8112968429803</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.30903818352</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.30903818352</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7156,13 +7156,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>870.3164745246296</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>701.3802915967227</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>551.263652184387</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>403.3505586019938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>256.4606111040835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.747069396417</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.757518498399</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.964939354869</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7411,13 +7411,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7450,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7499,19 +7499,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3809.631423131744</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4361.541153371031</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958734</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679666</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9926444679666</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>486.0795508855734</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261132</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457085</v>
       </c>
       <c r="N4" t="n">
-        <v>145.2551346857769</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>117.7869964582641</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>41.92993463898929</v>
+        <v>41.92993463898918</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.6499349213321</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>139.9014828445805</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>53.74845207675088</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>255.8421700460943</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179981</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -23415,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.404764594808</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>146.3469868924073</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>40.09910511159939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23949,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>37.39347442234316</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>78.31512318719916</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.54258064659096</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>6.310863011585553</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>144.1654765207635</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.87918985573532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>66.34424953498211</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>144.8013425629423</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>69.49168472642596</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>62.89964020219848</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="8">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>739240.7629862642</v>
+        <v>739240.7629862641</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>739240.7629862641</v>
+        <v>739240.7629862642</v>
       </c>
     </row>
   </sheetData>
@@ -26316,37 +26316,37 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365058</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="G2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
-      </c>
       <c r="J2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365055</v>
@@ -26355,7 +26355,7 @@
         <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208453</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>178997.5061427125</v>
+        <v>178997.5061427126</v>
       </c>
       <c r="D3" t="n">
-        <v>301519.8707731203</v>
+        <v>301519.8707731197</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245454</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
-        <v>3.100233243458205e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854463</v>
       </c>
       <c r="K3" t="n">
-        <v>41617.52445267298</v>
+        <v>41617.52445267301</v>
       </c>
       <c r="L3" t="n">
-        <v>73739.30240019536</v>
+        <v>73739.30240019516</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>229588.1389806967</v>
+        <v>229588.1389806965</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26432,7 +26432,7 @@
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.8081118428</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26441,13 +26441,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
@@ -26459,7 +26459,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>69851.97930029182</v>
+        <v>69851.97930029186</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-227928.0469785311</v>
+        <v>-227928.0469785313</v>
       </c>
       <c r="C6" t="n">
-        <v>219447.8799609402</v>
+        <v>219447.8799609399</v>
       </c>
       <c r="D6" t="n">
-        <v>158272.6304737375</v>
+        <v>158272.6304737379</v>
       </c>
       <c r="E6" t="n">
-        <v>63859.83017621023</v>
+        <v>63512.45092185301</v>
       </c>
       <c r="F6" t="n">
-        <v>571345.2718007554</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="G6" t="n">
-        <v>571345.2718007556</v>
+        <v>570997.8925463993</v>
       </c>
       <c r="H6" t="n">
-        <v>571345.2718007555</v>
+        <v>570997.8925463989</v>
       </c>
       <c r="I6" t="n">
-        <v>571345.2718007556</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="J6" t="n">
-        <v>522280.327072211</v>
+        <v>521932.947817854</v>
       </c>
       <c r="K6" t="n">
-        <v>529727.7473480826</v>
+        <v>529380.3680937258</v>
       </c>
       <c r="L6" t="n">
-        <v>497605.96940056</v>
+        <v>497258.5901462036</v>
       </c>
       <c r="M6" t="n">
-        <v>438737.9780718288</v>
+        <v>438390.5988174721</v>
       </c>
       <c r="N6" t="n">
-        <v>571345.2718007556</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="O6" t="n">
-        <v>571345.2718007558</v>
+        <v>570997.8925463988</v>
       </c>
       <c r="P6" t="n">
-        <v>571345.2718007561</v>
+        <v>570997.8925463989</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>687.6696919955708</v>
+        <v>687.6696919955713</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2299344537562</v>
+        <v>349.2299344537568</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26931,10 +26931,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>139.1997510826664</v>
+        <v>139.1997510826665</v>
       </c>
       <c r="D3" t="n">
-        <v>246.3952001219685</v>
+        <v>246.3952001219681</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241342</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>161.7043472874364</v>
+        <v>161.7043472874366</v>
       </c>
       <c r="D4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.354897646282</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874366</v>
+        <v>161.7043472874368</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462828</v>
+        <v>291.354897646282</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>161.7043472874364</v>
+        <v>161.7043472874366</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3548976462826</v>
+        <v>291.354897646282</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971608</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>237.416866963089</v>
       </c>
       <c r="H2" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>332.6192847615335</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897335</v>
       </c>
     </row>
     <row r="3">
@@ -27475,10 +27475,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550658</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714239</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681441</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377112</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310546</v>
+        <v>45.27499998310515</v>
       </c>
       <c r="W3" t="n">
-        <v>236.2926906757748</v>
+        <v>64.16939599459948</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.221017133629</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098424</v>
       </c>
     </row>
     <row r="4">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>75.05823927848429</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553086</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845815</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27593,19 +27593,19 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713046</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750819</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>282.5116605045755</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>38.18406822271703</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577467</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>33.50390720972382</v>
       </c>
       <c r="C5" t="n">
-        <v>16.04295731725136</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>32.1573623090685</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27636,7 +27636,7 @@
         <v>311.1628534397887</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>103.8974541908712</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>146.0239967969023</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>210.9942452356465</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1244928058882</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>20.50116622471228</v>
       </c>
       <c r="Y5" t="n">
-        <v>37.0080042022974</v>
+        <v>327.6973111939436</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>71.94117809396455</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8643785804277</v>
@@ -27715,7 +27715,7 @@
         <v>97.95007950277714</v>
       </c>
       <c r="I6" t="n">
-        <v>38.47015094419591</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>8.321493021611957</v>
+        <v>8.3214930216119</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>144.2088206736374</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.2027622142185</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8440703321075</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>135.7303265093646</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>118.1584857285476</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.686931024057088</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>121.5357799573319</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>202.4057324704885</v>
       </c>
       <c r="T7" t="n">
         <v>222.6471508178238</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>179.0880199207991</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>29.68007731846811</v>
       </c>
     </row>
     <row r="8">
@@ -27858,19 +27858,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>144.8145356984031</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247047</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>61.17489167692037</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>125.7375445107474</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528638</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622679</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550074</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647909</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.764501274354052</v>
+        <v>2.764501274354053</v>
       </c>
       <c r="H5" t="n">
-        <v>28.31194867597844</v>
+        <v>28.31194867597846</v>
       </c>
       <c r="I5" t="n">
         <v>106.5784353795347</v>
       </c>
       <c r="J5" t="n">
-        <v>234.6335900342074</v>
+        <v>234.6335900342075</v>
       </c>
       <c r="K5" t="n">
-        <v>351.6549289776145</v>
+        <v>351.6549289776147</v>
       </c>
       <c r="L5" t="n">
-        <v>436.2590348526273</v>
+        <v>436.2590348526276</v>
       </c>
       <c r="M5" t="n">
-        <v>485.4222343904212</v>
+        <v>485.4222343904215</v>
       </c>
       <c r="N5" t="n">
-        <v>493.2768736361797</v>
+        <v>493.27687363618</v>
       </c>
       <c r="O5" t="n">
-        <v>465.7873640893216</v>
+        <v>465.7873640893218</v>
       </c>
       <c r="P5" t="n">
-        <v>397.5387388787058</v>
+        <v>397.5387388787061</v>
       </c>
       <c r="Q5" t="n">
-        <v>298.5350369909013</v>
+        <v>298.5350369909015</v>
       </c>
       <c r="R5" t="n">
-        <v>173.6556031751428</v>
+        <v>173.6556031751429</v>
       </c>
       <c r="S5" t="n">
-        <v>62.99607278934301</v>
+        <v>62.99607278934305</v>
       </c>
       <c r="T5" t="n">
         <v>12.10160432848487</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2211601019483241</v>
+        <v>0.2211601019483242</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.479138582782926</v>
+        <v>1.479138582782927</v>
       </c>
       <c r="H6" t="n">
-        <v>14.28536473371931</v>
+        <v>14.28536473371932</v>
       </c>
       <c r="I6" t="n">
-        <v>50.92648190721917</v>
+        <v>50.9264819072192</v>
       </c>
       <c r="J6" t="n">
-        <v>139.7461588233641</v>
+        <v>139.7461588233642</v>
       </c>
       <c r="K6" t="n">
-        <v>238.8484438698201</v>
+        <v>238.8484438698203</v>
       </c>
       <c r="L6" t="n">
-        <v>321.1612085117051</v>
+        <v>321.1612085117053</v>
       </c>
       <c r="M6" t="n">
-        <v>374.779982137586</v>
+        <v>374.7799821375863</v>
       </c>
       <c r="N6" t="n">
-        <v>384.699293072126</v>
+        <v>384.6992930721262</v>
       </c>
       <c r="O6" t="n">
-        <v>351.9246960536201</v>
+        <v>351.9246960536203</v>
       </c>
       <c r="P6" t="n">
-        <v>282.450594812294</v>
+        <v>282.4505948122942</v>
       </c>
       <c r="Q6" t="n">
-        <v>188.8107426022556</v>
+        <v>188.8107426022557</v>
       </c>
       <c r="R6" t="n">
-        <v>91.83634113103118</v>
+        <v>91.83634113103123</v>
       </c>
       <c r="S6" t="n">
-        <v>27.47435043020038</v>
+        <v>27.4743504302004</v>
       </c>
       <c r="T6" t="n">
-        <v>5.961966480603107</v>
+        <v>5.961966480603111</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09731174886729779</v>
+        <v>0.09731174886729786</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.240060100319882</v>
+        <v>1.240060100319883</v>
       </c>
       <c r="H7" t="n">
-        <v>11.02526161920768</v>
+        <v>11.02526161920769</v>
       </c>
       <c r="I7" t="n">
-        <v>37.29198919871064</v>
+        <v>37.29198919871066</v>
       </c>
       <c r="J7" t="n">
-        <v>87.67224909261563</v>
+        <v>87.67224909261569</v>
       </c>
       <c r="K7" t="n">
-        <v>144.0724371098917</v>
+        <v>144.0724371098918</v>
       </c>
       <c r="L7" t="n">
-        <v>184.3631170966486</v>
+        <v>184.3631170966488</v>
       </c>
       <c r="M7" t="n">
-        <v>194.3850573619611</v>
+        <v>194.3850573619612</v>
       </c>
       <c r="N7" t="n">
-        <v>189.7630151698598</v>
+        <v>189.76301516986</v>
       </c>
       <c r="O7" t="n">
-        <v>175.2768585433957</v>
+        <v>175.2768585433958</v>
       </c>
       <c r="P7" t="n">
-        <v>149.97963249687</v>
+        <v>149.9796324968701</v>
       </c>
       <c r="Q7" t="n">
-        <v>103.8381234913312</v>
+        <v>103.8381234913313</v>
       </c>
       <c r="R7" t="n">
-        <v>55.75761141983757</v>
+        <v>55.75761141983761</v>
       </c>
       <c r="S7" t="n">
-        <v>21.61086556648375</v>
+        <v>21.61086556648376</v>
       </c>
       <c r="T7" t="n">
-        <v>5.298438610457675</v>
+        <v>5.298438610457678</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06763964183562998</v>
+        <v>0.06763964183563004</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,40 +31837,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>698.8508668798656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32320,25 +32320,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32557,22 +32557,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>708.9385480032147</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33025,7 +33025,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>268.6704608606964</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.6580975439405</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33903,7 +33903,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33970,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>639.8517673857162</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34219,22 +34219,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>537.262354434964</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973019</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915984</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848228</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062398</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646075</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9203199809851</v>
+        <v>23.66518529520832</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>99.67938739117032</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>53.58768550752112</v>
+        <v>53.58768550752126</v>
       </c>
       <c r="K5" t="n">
-        <v>131.5650779326339</v>
+        <v>131.5650779326342</v>
       </c>
       <c r="L5" t="n">
-        <v>200.4926198826401</v>
+        <v>200.4926198826404</v>
       </c>
       <c r="M5" t="n">
-        <v>255.0760011631484</v>
+        <v>255.0760011631488</v>
       </c>
       <c r="N5" t="n">
-        <v>263.8638100395888</v>
+        <v>263.8638100395891</v>
       </c>
       <c r="O5" t="n">
-        <v>235.6891526676348</v>
+        <v>235.6891526676351</v>
       </c>
       <c r="P5" t="n">
-        <v>166.3057431234363</v>
+        <v>166.3057431234366</v>
       </c>
       <c r="Q5" t="n">
-        <v>76.22934711645181</v>
+        <v>76.22934711645198</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>12.90853215669739</v>
+        <v>12.90853215669748</v>
       </c>
       <c r="K6" t="n">
-        <v>101.0070048954611</v>
+        <v>294.6569398167933</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6068287318309</v>
+        <v>182.6068287318311</v>
       </c>
       <c r="M6" t="n">
-        <v>232.6459482155677</v>
+        <v>232.645948215568</v>
       </c>
       <c r="N6" t="n">
-        <v>253.3575809887927</v>
+        <v>253.3575809887929</v>
       </c>
       <c r="O6" t="n">
-        <v>349.2299344537562</v>
+        <v>209.3284516091759</v>
       </c>
       <c r="P6" t="n">
-        <v>148.4761873979638</v>
+        <v>148.4761873979639</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.577420592985</v>
+        <v>48.82896851623423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>121.8029452840088</v>
+        <v>121.8029452840089</v>
       </c>
       <c r="L7" t="n">
-        <v>211.9531423569647</v>
+        <v>211.9531423569649</v>
       </c>
       <c r="M7" t="n">
-        <v>233.9689343238016</v>
+        <v>233.9689343238018</v>
       </c>
       <c r="N7" t="n">
-        <v>233.8951875490884</v>
+        <v>233.8951875490885</v>
       </c>
       <c r="O7" t="n">
-        <v>199.8619864574354</v>
+        <v>199.8619864574355</v>
       </c>
       <c r="P7" t="n">
-        <v>147.2581917617635</v>
+        <v>147.2581917617636</v>
       </c>
       <c r="Q7" t="n">
-        <v>17.6760802396368</v>
+        <v>17.67608023963687</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>442.4296662895791</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35272,7 +35272,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>556.7168329578473</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36205,22 +36205,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>566.8045140811964</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>134.6960534463662</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>508.510055302383</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>394.6661099905195</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
